--- a/dmmChannel.xlsx
+++ b/dmmChannel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -88,10 +88,10 @@
     <t>µADC</t>
   </si>
   <si>
-    <t>AAC</t>
+    <t>mAAC</t>
   </si>
   <si>
-    <t>mAAC</t>
+    <t>µAAC</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,337 +496,337 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="1">
-        <v>44641.35006462207</v>
+        <v>44642.39909234808</v>
       </c>
       <c r="B2" s="2">
-        <v>44641.35006462207</v>
+        <v>44642.39909234808</v>
       </c>
       <c r="C2">
-        <v>22.506</v>
+        <v>25.689</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2">
-        <v>26.218</v>
+        <v>27.686</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2">
-        <v>50.02</v>
+        <v>50.009</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2">
+        <v>19.995</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>-412.985</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>27.399</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>50.017</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2">
         <v>19.994</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>-390.85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2">
-        <v>25.928</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>50.002</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2">
-        <v>19.998</v>
-      </c>
       <c r="R2" t="s">
         <v>21</v>
       </c>
       <c r="S2">
-        <v>26.123</v>
+        <v>27.592</v>
       </c>
       <c r="T2" t="s">
         <v>19</v>
       </c>
       <c r="U2">
-        <v>12.448</v>
+        <v>16.349</v>
       </c>
       <c r="V2" t="s">
         <v>18</v>
       </c>
       <c r="W2">
-        <v>-409.14</v>
+        <v>-420.227</v>
       </c>
       <c r="X2" t="s">
         <v>22</v>
       </c>
       <c r="Y2">
-        <v>22.5</v>
+        <v>26.053</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
       <c r="AA2">
-        <v>306.534</v>
+        <v>310.668</v>
       </c>
       <c r="AB2" t="s">
         <v>23</v>
       </c>
       <c r="AC2">
-        <v>0.666</v>
+        <v>7.354</v>
       </c>
       <c r="AD2" t="s">
         <v>24</v>
       </c>
       <c r="AE2">
-        <v>304.654</v>
+        <v>311.795</v>
       </c>
       <c r="AF2" t="s">
         <v>23</v>
       </c>
       <c r="AG2">
-        <v>2.488</v>
+        <v>2.57</v>
       </c>
       <c r="AH2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1">
-        <v>44641.35075887329</v>
+        <v>44642.39978680451</v>
       </c>
       <c r="B3" s="2">
-        <v>44641.35075887329</v>
+        <v>44642.39978680451</v>
       </c>
       <c r="C3">
-        <v>22.63</v>
+        <v>25.889</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>26.294</v>
+        <v>27.615</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3">
-        <v>50.017</v>
+        <v>50.009</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>19.993</v>
+        <v>19.996</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="K3">
-        <v>-417.763</v>
+        <v>-423.25</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3">
-        <v>26.081</v>
+        <v>27.376</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3">
-        <v>50.009</v>
+        <v>50.018</v>
       </c>
       <c r="P3" t="s">
         <v>20</v>
       </c>
       <c r="Q3">
-        <v>19.995</v>
+        <v>19.992</v>
       </c>
       <c r="R3" t="s">
         <v>21</v>
       </c>
       <c r="S3">
-        <v>26.239</v>
+        <v>27.53</v>
       </c>
       <c r="T3" t="s">
         <v>19</v>
       </c>
       <c r="U3">
-        <v>12.214</v>
+        <v>16.995</v>
       </c>
       <c r="V3" t="s">
         <v>18</v>
       </c>
       <c r="W3">
-        <v>-421.272</v>
+        <v>-428.438</v>
       </c>
       <c r="X3" t="s">
         <v>22</v>
       </c>
       <c r="Y3">
-        <v>22.612</v>
+        <v>26.124</v>
       </c>
       <c r="Z3" t="s">
         <v>18</v>
       </c>
       <c r="AA3">
-        <v>304.654</v>
+        <v>311.419</v>
       </c>
       <c r="AB3" t="s">
         <v>23</v>
       </c>
       <c r="AC3">
-        <v>4.652</v>
+        <v>3.102</v>
       </c>
       <c r="AD3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3">
-        <v>306.909</v>
+        <v>313.298</v>
       </c>
       <c r="AF3" t="s">
         <v>23</v>
       </c>
       <c r="AG3">
-        <v>5.421</v>
+        <v>5.162</v>
       </c>
       <c r="AH3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1">
-        <v>44641.35145337878</v>
+        <v>44642.40048127403</v>
       </c>
       <c r="B4" s="2">
-        <v>44641.35145337878</v>
+        <v>44642.40048127403</v>
       </c>
       <c r="C4">
-        <v>22.716</v>
+        <v>25.812</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4">
-        <v>26.339</v>
+        <v>27.657</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4">
-        <v>50.01</v>
+        <v>49.997</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4">
-        <v>19.995</v>
+        <v>20.001</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>-422.802</v>
+        <v>-426.759</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4">
-        <v>26.037</v>
+        <v>27.382</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
       </c>
       <c r="O4">
-        <v>50.009</v>
+        <v>49.995</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
       </c>
       <c r="Q4">
-        <v>19.996</v>
+        <v>20.005</v>
       </c>
       <c r="R4" t="s">
         <v>21</v>
       </c>
       <c r="S4">
-        <v>26.191</v>
+        <v>27.524</v>
       </c>
       <c r="T4" t="s">
         <v>19</v>
       </c>
       <c r="U4">
-        <v>12.298</v>
+        <v>16.924</v>
       </c>
       <c r="V4" t="s">
         <v>18</v>
       </c>
       <c r="W4">
-        <v>-422.504</v>
+        <v>-430.342</v>
       </c>
       <c r="X4" t="s">
         <v>22</v>
       </c>
       <c r="Y4">
-        <v>22.74</v>
+        <v>26.152</v>
       </c>
       <c r="Z4" t="s">
         <v>18</v>
       </c>
       <c r="AA4">
-        <v>304.279</v>
+        <v>308.037</v>
       </c>
       <c r="AB4" t="s">
         <v>23</v>
       </c>
       <c r="AC4">
-        <v>5.891</v>
+        <v>1344.162</v>
       </c>
       <c r="AD4" t="s">
         <v>25</v>
       </c>
       <c r="AE4">
-        <v>305.782</v>
+        <v>311.043</v>
       </c>
       <c r="AF4" t="s">
         <v>23</v>
       </c>
       <c r="AG4">
-        <v>5.19</v>
+        <v>5.386</v>
       </c>
       <c r="AH4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="1">
-        <v>44641.35214797683</v>
+        <v>44642.40117572713</v>
       </c>
       <c r="B5" s="2">
-        <v>44641.35214797683</v>
+        <v>44642.40117572713</v>
       </c>
       <c r="C5">
-        <v>22.855</v>
+        <v>25.806</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5">
-        <v>26.343</v>
+        <v>28.142</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5">
-        <v>50.017</v>
+        <v>50.016</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -838,227 +838,227 @@
         <v>21</v>
       </c>
       <c r="K5">
-        <v>-425.602</v>
+        <v>-421.309</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
       <c r="M5">
-        <v>26.021</v>
+        <v>28.003</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
       </c>
       <c r="O5">
-        <v>50.008</v>
+        <v>50.017</v>
       </c>
       <c r="P5" t="s">
         <v>20</v>
       </c>
       <c r="Q5">
-        <v>19.996</v>
+        <v>19.994</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
       </c>
       <c r="S5">
-        <v>26.177</v>
+        <v>28.133</v>
       </c>
       <c r="T5" t="s">
         <v>19</v>
       </c>
       <c r="U5">
-        <v>12.298</v>
+        <v>17.035</v>
       </c>
       <c r="V5" t="s">
         <v>18</v>
       </c>
       <c r="W5">
-        <v>-425.938</v>
+        <v>-428.662</v>
       </c>
       <c r="X5" t="s">
         <v>22</v>
       </c>
       <c r="Y5">
-        <v>22.845</v>
+        <v>26.184</v>
       </c>
       <c r="Z5" t="s">
         <v>18</v>
       </c>
       <c r="AA5">
-        <v>306.534</v>
+        <v>309.916</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
       </c>
       <c r="AC5">
-        <v>6.301</v>
+        <v>1704.136</v>
       </c>
       <c r="AD5" t="s">
         <v>25</v>
       </c>
       <c r="AE5">
-        <v>308.413</v>
+        <v>310.292</v>
       </c>
       <c r="AF5" t="s">
         <v>23</v>
       </c>
       <c r="AG5">
-        <v>5.313</v>
+        <v>2.234</v>
       </c>
       <c r="AH5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="1">
-        <v>44641.35284242358</v>
+        <v>44642.40187017679</v>
       </c>
       <c r="B6" s="2">
-        <v>44641.35284242358</v>
+        <v>44642.40187017679</v>
       </c>
       <c r="C6">
-        <v>22.957</v>
+        <v>25.827</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6">
-        <v>26.336</v>
+        <v>28.251</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6">
-        <v>50.003</v>
+        <v>50.019</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>19.999</v>
+        <v>19.992</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>-425.378</v>
+        <v>-428.55</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
       </c>
       <c r="M6">
-        <v>26.107</v>
+        <v>27.954</v>
       </c>
       <c r="N6" t="s">
         <v>19</v>
       </c>
       <c r="O6">
-        <v>50.003</v>
+        <v>50.014</v>
       </c>
       <c r="P6" t="s">
         <v>20</v>
       </c>
       <c r="Q6">
-        <v>20.002</v>
+        <v>19.995</v>
       </c>
       <c r="R6" t="s">
         <v>21</v>
       </c>
       <c r="S6">
-        <v>26.293</v>
+        <v>28.086</v>
       </c>
       <c r="T6" t="s">
         <v>19</v>
       </c>
       <c r="U6">
-        <v>12.384</v>
+        <v>16.97</v>
       </c>
       <c r="V6" t="s">
         <v>18</v>
       </c>
       <c r="W6">
-        <v>-425.602</v>
+        <v>-428.476</v>
       </c>
       <c r="X6" t="s">
         <v>22</v>
       </c>
       <c r="Y6">
-        <v>22.971</v>
+        <v>26.231</v>
       </c>
       <c r="Z6" t="s">
         <v>18</v>
       </c>
       <c r="AA6">
-        <v>304.279</v>
+        <v>311.043</v>
       </c>
       <c r="AB6" t="s">
         <v>23</v>
       </c>
       <c r="AC6">
-        <v>4.274</v>
+        <v>3.211</v>
       </c>
       <c r="AD6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6">
-        <v>307.285</v>
+        <v>310.292</v>
       </c>
       <c r="AF6" t="s">
         <v>23</v>
       </c>
       <c r="AG6">
-        <v>5.404</v>
+        <v>2.323</v>
       </c>
       <c r="AH6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="1">
-        <v>44641.35353684622</v>
+        <v>44642.40256463028</v>
       </c>
       <c r="B7" s="2">
-        <v>44641.35353684622</v>
+        <v>44642.40256463028</v>
       </c>
       <c r="C7">
-        <v>23.049</v>
+        <v>25.901</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>26.311</v>
+        <v>28.191</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7">
-        <v>50.009</v>
+        <v>50.018</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>19.997</v>
+        <v>19.993</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>-425.788</v>
+        <v>-434.411</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
       </c>
       <c r="M7">
-        <v>26.068</v>
+        <v>27.898</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
       </c>
       <c r="O7">
-        <v>50.008</v>
+        <v>50.016</v>
       </c>
       <c r="P7" t="s">
         <v>20</v>
@@ -1070,141 +1070,141 @@
         <v>21</v>
       </c>
       <c r="S7">
-        <v>26.242</v>
+        <v>28.057</v>
       </c>
       <c r="T7" t="s">
         <v>19</v>
       </c>
       <c r="U7">
-        <v>12.35</v>
+        <v>16.909</v>
       </c>
       <c r="V7" t="s">
         <v>18</v>
       </c>
       <c r="W7">
-        <v>-426.348</v>
+        <v>-428.662</v>
       </c>
       <c r="X7" t="s">
         <v>22</v>
       </c>
       <c r="Y7">
-        <v>23.075</v>
+        <v>26.267</v>
       </c>
       <c r="Z7" t="s">
         <v>18</v>
       </c>
       <c r="AA7">
-        <v>307.661</v>
+        <v>311.043</v>
       </c>
       <c r="AB7" t="s">
         <v>23</v>
       </c>
       <c r="AC7">
-        <v>5.805</v>
+        <v>1628.102</v>
       </c>
       <c r="AD7" t="s">
         <v>25</v>
       </c>
       <c r="AE7">
-        <v>306.158</v>
+        <v>312.923</v>
       </c>
       <c r="AF7" t="s">
         <v>23</v>
       </c>
       <c r="AG7">
-        <v>5.328</v>
+        <v>2.365</v>
       </c>
       <c r="AH7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1">
-        <v>44641.35423130112</v>
+        <v>44642.40325910451</v>
       </c>
       <c r="B8" s="2">
-        <v>44641.35423130112</v>
+        <v>44642.40325910451</v>
       </c>
       <c r="C8">
-        <v>23.132</v>
+        <v>25.906</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>26.428</v>
+        <v>28.169</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8">
-        <v>50.006</v>
+        <v>50.025</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>19.996</v>
+        <v>19.991</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>-428.7</v>
+        <v>-429.521</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
       </c>
       <c r="M8">
-        <v>26.181</v>
+        <v>27.98</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
       </c>
       <c r="O8">
-        <v>50.023</v>
+        <v>50.024</v>
       </c>
       <c r="P8" t="s">
         <v>20</v>
       </c>
       <c r="Q8">
-        <v>19.991</v>
+        <v>19.99</v>
       </c>
       <c r="R8" t="s">
         <v>21</v>
       </c>
       <c r="S8">
-        <v>26.343</v>
+        <v>28.132</v>
       </c>
       <c r="T8" t="s">
         <v>19</v>
       </c>
       <c r="U8">
-        <v>12.462</v>
+        <v>16.713</v>
       </c>
       <c r="V8" t="s">
         <v>18</v>
       </c>
       <c r="W8">
-        <v>-429.782</v>
+        <v>-429.558</v>
       </c>
       <c r="X8" t="s">
         <v>22</v>
       </c>
       <c r="Y8">
-        <v>23.18</v>
+        <v>26.27</v>
       </c>
       <c r="Z8" t="s">
         <v>18</v>
       </c>
       <c r="AA8">
-        <v>306.534</v>
+        <v>312.547</v>
       </c>
       <c r="AB8" t="s">
         <v>23</v>
       </c>
       <c r="AC8">
-        <v>6.344</v>
+        <v>1648.892</v>
       </c>
       <c r="AD8" t="s">
         <v>25</v>
@@ -1216,322 +1216,2402 @@
         <v>23</v>
       </c>
       <c r="AG8">
-        <v>5.438</v>
+        <v>2.383</v>
       </c>
       <c r="AH8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="1">
-        <v>44641.35492575221</v>
+        <v>44642.40395353366</v>
       </c>
       <c r="B9" s="2">
-        <v>44641.35492575221</v>
+        <v>44642.40395353366</v>
       </c>
       <c r="C9">
-        <v>23.203</v>
+        <v>25.975</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9">
-        <v>26.394</v>
+        <v>28.191</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9">
-        <v>49.992</v>
+        <v>50.027</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9">
-        <v>20.003</v>
+        <v>19.989</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
       <c r="K9">
-        <v>-427.916</v>
+        <v>-429.446</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
       </c>
       <c r="M9">
-        <v>26.11</v>
+        <v>27.897</v>
       </c>
       <c r="N9" t="s">
         <v>19</v>
       </c>
       <c r="O9">
-        <v>49.986</v>
+        <v>50.032</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
       </c>
       <c r="Q9">
-        <v>20.003</v>
+        <v>19.987</v>
       </c>
       <c r="R9" t="s">
         <v>21</v>
       </c>
       <c r="S9">
-        <v>26.281</v>
+        <v>28.069</v>
       </c>
       <c r="T9" t="s">
         <v>19</v>
       </c>
       <c r="U9">
-        <v>12.733</v>
+        <v>16.994</v>
       </c>
       <c r="V9" t="s">
         <v>18</v>
       </c>
       <c r="W9">
-        <v>-427.58</v>
+        <v>-429.409</v>
       </c>
       <c r="X9" t="s">
         <v>22</v>
       </c>
       <c r="Y9">
-        <v>23.267</v>
+        <v>26.321</v>
       </c>
       <c r="Z9" t="s">
         <v>18</v>
       </c>
       <c r="AA9">
-        <v>308.037</v>
+        <v>311.419</v>
       </c>
       <c r="AB9" t="s">
         <v>23</v>
       </c>
       <c r="AC9">
-        <v>7.626</v>
+        <v>4.122</v>
       </c>
       <c r="AD9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE9">
-        <v>308.413</v>
+        <v>312.923</v>
       </c>
       <c r="AF9" t="s">
         <v>23</v>
       </c>
       <c r="AG9">
-        <v>5.426</v>
+        <v>2.226</v>
       </c>
       <c r="AH9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="1">
-        <v>44641.35562041788</v>
+        <v>44642.4046480094</v>
       </c>
       <c r="B10" s="2">
-        <v>44641.35562041788</v>
+        <v>44642.4046480094</v>
       </c>
       <c r="C10">
-        <v>23.277</v>
+        <v>25.894</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>26.411</v>
+        <v>28.177</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10">
-        <v>49.982</v>
+        <v>50.023</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10">
-        <v>20.006</v>
+        <v>19.991</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
       <c r="K10">
-        <v>-427.916</v>
+        <v>-428.215</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
       </c>
       <c r="M10">
-        <v>26.148</v>
+        <v>27.906</v>
       </c>
       <c r="N10" t="s">
         <v>19</v>
       </c>
       <c r="O10">
-        <v>49.982</v>
+        <v>50.014</v>
       </c>
       <c r="P10" t="s">
         <v>20</v>
       </c>
       <c r="Q10">
-        <v>20.005</v>
+        <v>19.992</v>
       </c>
       <c r="R10" t="s">
         <v>21</v>
       </c>
       <c r="S10">
-        <v>26.331</v>
+        <v>28.117</v>
       </c>
       <c r="T10" t="s">
         <v>19</v>
       </c>
       <c r="U10">
-        <v>12.845</v>
+        <v>16.957</v>
       </c>
       <c r="V10" t="s">
         <v>18</v>
       </c>
       <c r="W10">
-        <v>-427.729</v>
+        <v>-429.67</v>
       </c>
       <c r="X10" t="s">
         <v>22</v>
       </c>
       <c r="Y10">
-        <v>23.359</v>
+        <v>26.327</v>
       </c>
       <c r="Z10" t="s">
         <v>18</v>
       </c>
       <c r="AA10">
-        <v>305.782</v>
+        <v>311.795</v>
       </c>
       <c r="AB10" t="s">
         <v>23</v>
       </c>
       <c r="AC10">
-        <v>6.469</v>
+        <v>3.6</v>
       </c>
       <c r="AD10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE10">
-        <v>308.789</v>
+        <v>311.419</v>
       </c>
       <c r="AF10" t="s">
         <v>23</v>
       </c>
       <c r="AG10">
-        <v>5.366</v>
+        <v>5.034</v>
       </c>
       <c r="AH10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="1">
-        <v>44641.35631466188</v>
+        <v>44642.40534243881</v>
       </c>
       <c r="B11" s="2">
-        <v>44641.35631466188</v>
+        <v>44642.40534243881</v>
       </c>
       <c r="C11">
-        <v>23.292</v>
+        <v>25.872</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
-        <v>26.445</v>
+        <v>28.18</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11">
-        <v>49.996</v>
+        <v>50.009</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11">
+        <v>19.996</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>-429.708</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>27.882</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>50.013</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>19.995</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11">
+        <v>28.039</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11">
+        <v>17.114</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11">
+        <v>-431.761</v>
+      </c>
+      <c r="X11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11">
+        <v>26.345</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>311.043</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC11">
+        <v>2.482</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11">
+        <v>312.547</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG11">
+        <v>5.203</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>44642.40603689017</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44642.40603689017</v>
+      </c>
+      <c r="C12">
+        <v>25.883</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>28.224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>50.017</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>19.995</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>-426.162</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>27.904</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>50.011</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>19.995</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12">
+        <v>28.07</v>
+      </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <v>17.01</v>
+      </c>
+      <c r="V12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12">
+        <v>-431.051</v>
+      </c>
+      <c r="X12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <v>26.342</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>311.043</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12">
+        <v>2.175</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12">
+        <v>310.668</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12">
+        <v>2.303</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>44642.40673122582</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44642.40673122582</v>
+      </c>
+      <c r="C13">
+        <v>25.843</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>28.122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>50.001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
         <v>20.001</v>
       </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11">
-        <v>-425.602</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <v>26.18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11">
-        <v>50.001</v>
-      </c>
-      <c r="P11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11">
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>-430.827</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>27.867</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>49.992</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>20.004</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13">
+        <v>28.006</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13">
+        <v>16.886</v>
+      </c>
+      <c r="V13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13">
+        <v>-431.723</v>
+      </c>
+      <c r="X13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <v>26.353</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>310.292</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13">
+        <v>3.549</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13">
+        <v>313.674</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG13">
+        <v>5.058</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>44642.40742567732</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44642.40742567732</v>
+      </c>
+      <c r="C14">
+        <v>25.81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>28.074</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>49.989</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>20.003</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>-431.275</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>27.783</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>49.99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>20.004</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14">
+        <v>27.98</v>
+      </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>16.957</v>
+      </c>
+      <c r="V14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14">
+        <v>-429.82</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14">
+        <v>26.357</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>309.54</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14">
+        <v>1789.08</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14">
+        <v>312.171</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG14">
+        <v>2.164</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>44642.40812015742</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44642.40812015742</v>
+      </c>
+      <c r="C15">
+        <v>25.842</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>28.137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>50.003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>-429.409</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>27.882</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>49.998</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15">
+        <v>28.071</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15">
+        <v>17.131</v>
+      </c>
+      <c r="V15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15">
+        <v>-432.432</v>
+      </c>
+      <c r="X15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15">
+        <v>26.37</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>310.668</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15">
+        <v>5.402</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15">
+        <v>309.164</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG15">
+        <v>5.309</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>44642.40881460766</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44642.40881460766</v>
+      </c>
+      <c r="C16">
+        <v>25.801</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>28.232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>50.026</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>19.99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>-430.865</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>27.934</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>50.013</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16">
         <v>19.999</v>
       </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11">
-        <v>26.34</v>
-      </c>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11">
-        <v>12.838</v>
-      </c>
-      <c r="V11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11">
-        <v>-427.916</v>
-      </c>
-      <c r="X11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11">
-        <v>23.436</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA11">
-        <v>305.406</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC11">
-        <v>8.398999999999999</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16">
+        <v>28.073</v>
+      </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>17.056</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <v>-430.491</v>
+      </c>
+      <c r="X16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16">
+        <v>26.349</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>309.916</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16">
+        <v>1161.8</v>
+      </c>
+      <c r="AD16" t="s">
         <v>25</v>
       </c>
-      <c r="AE11">
+      <c r="AE16">
+        <v>312.171</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG16">
+        <v>5.151</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>44642.4095090595</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44642.4095090595</v>
+      </c>
+      <c r="C17">
+        <v>25.802</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>28.191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>50.014</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>19.995</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>-428.737</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>27.895</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>49.992</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>20.005</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>28.082</v>
+      </c>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17">
+        <v>17.075</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17">
+        <v>-430.902</v>
+      </c>
+      <c r="X17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17">
+        <v>26.368</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>309.916</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17">
+        <v>3.13</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17">
+        <v>313.674</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG17">
+        <v>5.151</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>44642.4102034309</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44642.4102034309</v>
+      </c>
+      <c r="C18">
+        <v>25.777</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>28.192</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>50.004</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>19.998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>-427.692</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>27.927</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>50.006</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>19.996</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>28.12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18">
+        <v>17.126</v>
+      </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>-431.313</v>
+      </c>
+      <c r="X18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18">
+        <v>26.368</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>311.043</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18">
+        <v>3.396</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18">
+        <v>310.668</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG18">
+        <v>5.148</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>44642.41089800461</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44642.41089800461</v>
+      </c>
+      <c r="C19">
+        <v>25.818</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>28.236</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>50.018</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>19.992</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>-429.484</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>27.959</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>50.024</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>19.99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <v>28.14</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>17.271</v>
+      </c>
+      <c r="V19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <v>-435.717</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19">
+        <v>26.359</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>309.916</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19">
+        <v>2.539</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19">
+        <v>315.929</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG19">
+        <v>5.065</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>44642.4115923291</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44642.4115923291</v>
+      </c>
+      <c r="C20">
+        <v>25.801</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>28.267</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>50.024</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>19.989</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>-428.886</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>27.916</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>50.031</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>19.988</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20">
+        <v>28.116</v>
+      </c>
+      <c r="T20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>17.073</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>-421.048</v>
+      </c>
+      <c r="X20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20">
+        <v>26.365</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>309.54</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20">
+        <v>4.485</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20">
+        <v>312.171</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG20">
+        <v>5.191</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>44642.41228673484</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44642.41228673484</v>
+      </c>
+      <c r="C21">
+        <v>25.802</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>28.204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>50.027</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>19.988</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>-430.006</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>27.994</v>
+      </c>
+      <c r="N21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>50.03</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>19.989</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>28.157</v>
+      </c>
+      <c r="T21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21">
+        <v>17.094</v>
+      </c>
+      <c r="V21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>-426.05</v>
+      </c>
+      <c r="X21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21">
+        <v>26.355</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21">
         <v>308.413</v>
       </c>
-      <c r="AF11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG11">
-        <v>5.364</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AB21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21">
+        <v>5.36</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE21">
+        <v>310.668</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG21">
+        <v>5.15</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>44642.41298118212</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44642.41298118212</v>
+      </c>
+      <c r="C22">
+        <v>25.788</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>28.255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>50.03</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>19.988</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>-428.327</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>27.97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>50.026</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>19.99</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <v>28.147</v>
+      </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22">
+        <v>16.901</v>
+      </c>
+      <c r="V22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22">
+        <v>-430.305</v>
+      </c>
+      <c r="X22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>26.362</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>311.795</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22">
+        <v>3.336</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22">
+        <v>311.795</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG22">
+        <v>5.111</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>44642.41367566599</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44642.41367566599</v>
+      </c>
+      <c r="C23">
+        <v>25.79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>28.223</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>50.044</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>19.983</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>-432.918</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>27.991</v>
+      </c>
+      <c r="N23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>50.04</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>19.986</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23">
+        <v>28.154</v>
+      </c>
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23">
+        <v>17.076</v>
+      </c>
+      <c r="V23" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23">
+        <v>-431.761</v>
+      </c>
+      <c r="X23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23">
+        <v>26.354</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>312.547</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC23">
+        <v>4.811</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE23">
+        <v>314.05</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG23">
+        <v>2.421</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>44642.41437009156</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44642.41437009156</v>
+      </c>
+      <c r="C24">
+        <v>25.809</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>28.225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>50.027</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>19.989</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <v>-428.998</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>27.909</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24">
+        <v>50.037</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>19.987</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>28.064</v>
+      </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24">
+        <v>17.004</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24">
+        <v>-427.281</v>
+      </c>
+      <c r="X24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24">
+        <v>26.358</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>312.923</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC24">
+        <v>5.604</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE24">
+        <v>311.043</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG24">
+        <v>4.972</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>44642.41506456888</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44642.41506456888</v>
+      </c>
+      <c r="C25">
+        <v>25.787</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>28.263</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>50.039</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>19.985</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>-430.827</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>28.021</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>50.031</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>19.987</v>
+      </c>
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25">
+        <v>28.173</v>
+      </c>
+      <c r="T25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25">
+        <v>17.113</v>
+      </c>
+      <c r="V25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25">
+        <v>-428.662</v>
+      </c>
+      <c r="X25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25">
+        <v>26.358</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>312.547</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC25">
+        <v>1966.096</v>
+      </c>
+      <c r="AD25" t="s">
         <v>25</v>
+      </c>
+      <c r="AE25">
+        <v>313.674</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25">
+        <v>5.209</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>44642.41575898982</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44642.41575898982</v>
+      </c>
+      <c r="C26">
+        <v>25.792</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>28.244</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>50.039</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>19.983</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>-428.961</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>27.971</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26">
+        <v>50.042</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>19.983</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26">
+        <v>28.18</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26">
+        <v>17.149</v>
+      </c>
+      <c r="V26" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26">
+        <v>-431.201</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26">
+        <v>26.349</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>309.164</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26">
+        <v>1420.196</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE26">
+        <v>312.547</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26">
+        <v>5.144</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>44642.4164535378</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44642.4164535378</v>
+      </c>
+      <c r="C27">
+        <v>25.812</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>28.244</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>50.039</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>19.984</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <v>-429.11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>28.047</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27">
+        <v>50.035</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27">
+        <v>19.987</v>
+      </c>
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27">
+        <v>28.233</v>
+      </c>
+      <c r="T27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27">
+        <v>16.386</v>
+      </c>
+      <c r="V27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <v>-433.627</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27">
+        <v>26.36</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>310.668</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27">
+        <v>1561.572</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27">
+        <v>311.795</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27">
+        <v>2.571</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>44642.41714800999</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44642.41714800999</v>
+      </c>
+      <c r="C28">
+        <v>25.795</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>28.337</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>50.016</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>19.994</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>-425.34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>28.066</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28">
+        <v>50.008</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28">
+        <v>19.996</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28">
+        <v>28.198</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28">
+        <v>17.05</v>
+      </c>
+      <c r="V28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28">
+        <v>-431.873</v>
+      </c>
+      <c r="X28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28">
+        <v>26.351</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>311.043</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC28">
+        <v>1182.59</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE28">
+        <v>311.419</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG28">
+        <v>1942.336</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>44642.41784237448</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44642.41784237448</v>
+      </c>
+      <c r="C29">
+        <v>25.834</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>28.295</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>49.978</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>20.008</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29">
+        <v>-428.849</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>28.011</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <v>49.98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <v>20.009</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29">
+        <v>28.177</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29">
+        <v>17.171</v>
+      </c>
+      <c r="V29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29">
+        <v>-434.933</v>
+      </c>
+      <c r="X29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29">
+        <v>26.359</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>307.661</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC29">
+        <v>5.46</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE29">
+        <v>312.547</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG29">
+        <v>5.284</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>44642.41853682499</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44642.41853682499</v>
+      </c>
+      <c r="C30">
+        <v>25.814</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>28.239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>49.966</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>20.016</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30">
+        <v>-426.609</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>27.992</v>
+      </c>
+      <c r="N30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30">
+        <v>49.951</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30">
+        <v>20.017</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <v>28.16</v>
+      </c>
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30">
+        <v>17.208</v>
+      </c>
+      <c r="V30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30">
+        <v>-430.379</v>
+      </c>
+      <c r="X30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30">
+        <v>26.366</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>312.171</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC30">
+        <v>2.305</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE30">
+        <v>310.668</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG30">
+        <v>2.089</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>44642.41923125567</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44642.41923125567</v>
+      </c>
+      <c r="C31">
+        <v>25.814</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>28.242</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>49.953</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>20.018</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <v>-429.932</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>27.969</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <v>49.963</v>
+      </c>
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31">
+        <v>20.015</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31">
+        <v>28.133</v>
+      </c>
+      <c r="T31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31">
+        <v>17.105</v>
+      </c>
+      <c r="V31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31">
+        <v>-431.723</v>
+      </c>
+      <c r="X31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y31">
+        <v>26.359</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>313.298</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC31">
+        <v>2.623</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE31">
+        <v>313.674</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG31">
+        <v>2.115</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
